--- a/Report.xlsx
+++ b/Report.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>17.93 C°</t>
+          <t>15.75 C°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 %</t>
+          <t>84 %</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98 %</t>
+          <t>71 %</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,47 +531,47 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-05-19 20:03</t>
+          <t>2022-05-31 20:44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>16.48 C°</t>
+          <t>15.57 C°</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>17.93 C°</t>
+          <t>15.75 C°</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>17.93 C°</t>
+          <t>15.75 C°</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1022 мм.рт.ст</t>
+          <t>1017 мм.рт.ст</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>overcast clouds</t>
+          <t>broken clouds</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3.81 м/с</t>
+          <t>0.45 м/с</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>319°</t>
+          <t>37°</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>8.79 м/с</t>
+          <t>0.45 м/с</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15.75 C°</t>
+          <t>22.35 C°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>84 %</t>
+          <t>82 %</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71 %</t>
+          <t>74 %</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,27 +531,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-05-31 20:44</t>
+          <t>2022-06-02 21:32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.57 C°</t>
+          <t>22.78 C°</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15.75 C°</t>
+          <t>22.35 C°</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>15.75 C°</t>
+          <t>22.35 C°</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1017 мм.рт.ст</t>
+          <t>987 мм.рт.ст</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.45 м/с</t>
+          <t>3.58 м/с</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>37°</t>
+          <t>249°</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.45 м/с</t>
+          <t>7.4 м/с</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -501,12 +501,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Lviv</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22.35 C°</t>
+          <t>15.15 C°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,12 +516,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82 %</t>
+          <t>74 %</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>74 %</t>
+          <t>17 %</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -531,47 +531,47 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2022-06-02 21:32</t>
+          <t>2022-06-08 02:19</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>22.78 C°</t>
+          <t>14.65 C°</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>22.35 C°</t>
+          <t>15.15 C°</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>22.35 C°</t>
+          <t>15.15 C°</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>987 мм.рт.ст</t>
+          <t>1012 мм.рт.ст</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>broken clouds</t>
+          <t>few clouds</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3.58 м/с</t>
+          <t>3.15 м/с</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>249°</t>
+          <t>153°</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>7.4 м/с</t>
+          <t>7.11 м/с</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lviv</t>
+          <t>Vinnytsia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15.15 C°</t>
+          <t>16.43 C°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,62 +516,2988 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>81 %</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>53 %</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2022-06-13 21:00:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>16.24 C°</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16.43 C°</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>16.43 C°</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1011 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2.26 м/с</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>175°</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.25 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16.16 C°</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82 %</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2022-06-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>15.97 C°</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>16.16 C°</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>15.63 C°</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1011 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>scattered clouds</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.64 м/с</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>182°</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.06 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>15.02 C°</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2022-06-14 03:00:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>14.9 C°</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>15.02 C°</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>14.32 C°</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1012 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6.38 м/с</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>319°</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>12.06 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16.06 C°</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64 %</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2022-06-14 06:00:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>15.58 C°</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>16.06 C°</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>16.06 C°</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1014 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7.51 м/с</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>319°</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>10.48 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16.43 C°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60 %</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2022-06-14 09:00:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15.83 C°</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>16.43 C°</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>16.43 C°</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1016 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6.64 м/с</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>321°</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>8.66 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>19.62 C°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45 %</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>30 %</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2022-06-14 12:00:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>18.81 C°</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>19.62 C°</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>19.62 C°</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1016 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>scattered clouds</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6.45 м/с</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>319°</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7.57 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>19.41 C°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11 %</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2022-06-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>18.69 C°</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>19.41 C°</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>19.41 C°</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1016 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>5.59 м/с</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>316°</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>7.34 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14.49 C°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67 %</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21 %</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2022-06-14 18:00:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>13.74 C°</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>14.49 C°</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14.49 C°</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1018 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>few clouds</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>3.32 м/с</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>311°</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>7.26 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>12.55 C°</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>75 %</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91 %</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2022-06-14 21:00:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>11.82 C°</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>12.55 C°</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>12.55 C°</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>3.04 м/с</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>307°</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>7.39 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>11.11 C°</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>81 %</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95 %</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2022-06-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10.39 C°</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>11.11 C°</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>11.11 C°</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2.6 м/с</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>292°</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5.82 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10.58 C°</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>83 %</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88 %</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2022-06-15 03:00:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>9.86 C°</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10.58 C°</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>10.58 C°</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.95 м/с</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>304°</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>7.56 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>15.33 C°</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>63 %</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2022-06-15 06:00:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>14.56 C°</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>15.33 C°</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15.33 C°</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4.68 м/с</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>315°</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>6.54 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>18.47 C°</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>47 %</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5 %</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2022-06-15 09:00:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17.6 C°</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>18.47 C°</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>18.47 C°</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4.44 м/с</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>312°</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>5.56 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16.87 C°</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>57 %</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2022-06-15 12:00:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>16.1 C°</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>16.87 C°</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16.87 C°</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>scattered clouds</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>3.66 м/с</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>300°</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5.59 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>18.17 C°</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>53 %</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77 %</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2022-06-15 15:00:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>17.43 C°</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>18.17 C°</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>18.17 C°</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>3.92 м/с</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>300°</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>5.46 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13.85 C°</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>74 %</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>17 %</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10000 м</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2022-06-08 02:19</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>14.65 C°</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>15.15 C°</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>15.15 C°</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1012 мм.рт.ст</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>few clouds</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3.15 м/с</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>153°</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>58 %</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2022-06-15 18:00:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>13.22 C°</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>13.85 C°</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>13.85 C°</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1021 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>2.32 м/с</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>310°</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2.78 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12.5 C°</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2022-06-15 21:00:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>11.87 C°</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>12.5 C°</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>12.5 C°</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1021 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2.21 м/с</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>305°</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>3 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10.23 C°</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>55 %</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2022-06-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>9.63 C°</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10.23 C°</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>10.23 C°</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2.02 м/с</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>289°</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2.39 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>10.18 C°</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>89 %</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3 %</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2022-06-16 03:00:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>9.58 C°</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10.18 C°</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>10.18 C°</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.93 м/с</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>276°</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2.68 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16.56 C°</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>65 %</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10 %</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2022-06-16 06:00:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>15.97 C°</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>16.56 C°</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>16.56 C°</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1021 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.97 м/с</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>282°</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2.59 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>20.38 C°</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Clear</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>49 %</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10 %</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2022-06-16 09:00:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19.75 C°</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>20.38 C°</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>20.38 C°</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>clear sky</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>2.25 м/с</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>267°</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2.91 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20.95 C°</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31 %</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2022-06-16 12:00:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>20.43 C°</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>20.95 C°</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>20.95 C°</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2.63 м/с</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>269°</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>3.79 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>20.13 C°</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>59 %</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93 %</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2022-06-16 15:00:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>19.74 C°</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20.13 C°</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>20.13 C°</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.85 м/с</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>145°</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2.65 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>18.03 C°</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>60 %</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96 %</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2022-06-16 18:00:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>17.46 C°</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>18.03 C°</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>18.03 C°</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2.02 м/с</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>140°</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2.57 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>13.88 C°</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>73 %</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79 %</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2022-06-16 21:00:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>13.23 C°</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13.88 C°</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>13.88 C°</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>2.39 м/с</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>206°</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2.84 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12.78 C°</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>76 %</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>51 %</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2022-06-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>12.1 C°</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>12.78 C°</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>12.78 C°</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.23 м/с</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>211°</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.24 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>14.71 C°</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>68 %</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71 %</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2022-06-17 03:00:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>14.01 C°</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>14.71 C°</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>14.71 C°</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1018 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>broken clouds</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.17 м/с</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>162°</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.21 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>19.3 C°</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>56 %</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2022-06-17 06:00:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>18.75 C°</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>19.3 C°</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>19.3 C°</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1018 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.92 м/с</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>107°</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0.74 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>22.43 C°</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>48 %</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2022-06-17 09:00:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>21.98 C°</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>22.43 C°</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>22.43 C°</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1018 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.18 м/с</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>156°</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>1.2 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>25.71 C°</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>41 %</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93 %</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2022-06-17 12:00:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>25.41 C°</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>25.71 C°</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>25.71 C°</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1017 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.19 м/с</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>18°</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>2.87 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>19.91 C°</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>72 %</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2022-06-17 15:00:00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>19.84 C°</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>19.91 C°</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>19.91 C°</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1017 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>3.58 м/с</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>6.17 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>15.67 C°</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>85 %</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93 %</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2022-06-17 18:00:00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>15.51 C°</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>15.67 C°</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>15.67 C°</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1019 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>4.85 м/с</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>35°</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>10.64 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>14.38 C°</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>95 %</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2022-06-17 21:00:00</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>14.35 C°</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>14.38 C°</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>14.38 C°</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>3.43 м/с</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>353°</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
         <is>
           <t>7.11 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>13.83 C°</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>98 %</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6302 м</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2022-06-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>13.83 C°</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>13.83 C°</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>13.83 C°</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1020 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>moderate rain</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>4.03 м/с</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>16°</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>8.09 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13.44 C°</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>98 %</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>100 %</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2022-06-18 03:00:00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>13.4 C°</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>13.44 C°</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>13.44 C°</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1021 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>moderate rain</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>2.47 м/с</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>12°</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>6.13 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>15.91 C°</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>83 %</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2022-06-18 06:00:00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>15.72 C°</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>15.91 C°</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>15.91 C°</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>3.04 м/с</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>1°</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>5 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18.98 C°</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Clouds</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>66 %</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99 %</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2022-06-18 09:00:00</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>18.66 C°</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>18.98 C°</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>18.98 C°</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>overcast clouds</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>3.46 м/с</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>15°</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>4.21 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>20.81 C°</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>64 %</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98 %</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2022-06-18 12:00:00</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>20.62 C°</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>20.81 C°</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>20.81 C°</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>3.17 м/с</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>12°</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>4.38 м/с</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Vinnytsia</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>21.46 C°</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Rain</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>53 %</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87 %</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10000 м</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2022-06-18 15:00:00</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>21.05 C°</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>21.46 C°</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>21.46 C°</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1022 мм.рт.ст</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>light rain</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>3.57 м/с</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>356°</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>4.36 м/с</t>
         </is>
       </c>
     </row>
